--- a/teaching/traditional_assets/database/data/macedonia/macedonia_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/macedonia/macedonia_metals_mining.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-5.04</v>
+        <v>-4.69</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6.04</v>
+        <v>2.93</v>
       </c>
       <c r="V2">
-        <v>0.7916120576671035</v>
+        <v>0.09361022364217253</v>
       </c>
       <c r="W2">
-        <v>-1.130044843049327</v>
+        <v>-0.6020539152759949</v>
       </c>
       <c r="X2">
-        <v>0.2832620544872187</v>
+        <v>0.1099973702347115</v>
       </c>
       <c r="Y2">
-        <v>-1.413306897536546</v>
+        <v>-0.7120512855107064</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.09328512135126146</v>
+        <v>-0.2084084084084084</v>
       </c>
       <c r="AB2">
-        <v>0.1773343355439232</v>
+        <v>0.116108343482846</v>
       </c>
       <c r="AC2">
-        <v>-0.2706194568951846</v>
+        <v>-0.3245167518912544</v>
       </c>
       <c r="AD2">
-        <v>14.9</v>
+        <v>16.7</v>
       </c>
       <c r="AE2">
-        <v>0.007037322304292653</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.90703732230429</v>
+        <v>16.7</v>
       </c>
       <c r="AG2">
-        <v>8.867037322304292</v>
+        <v>13.77</v>
       </c>
       <c r="AH2">
-        <v>0.6614461834143214</v>
+        <v>0.3479166666666667</v>
       </c>
       <c r="AI2">
-        <v>0.6567833991115308</v>
+        <v>0.7844058243306716</v>
       </c>
       <c r="AJ2">
-        <v>0.5374927115134727</v>
+        <v>0.3055247392944309</v>
       </c>
       <c r="AK2">
-        <v>0.5323297985549359</v>
+        <v>0.75</v>
       </c>
       <c r="AL2">
-        <v>2.19</v>
+        <v>1.81</v>
       </c>
       <c r="AM2">
-        <v>2.19</v>
+        <v>1.748</v>
       </c>
       <c r="AN2">
-        <v>-9.418457648546143</v>
+        <v>-4.854651162790698</v>
       </c>
       <c r="AO2">
-        <v>-0.7534246575342466</v>
+        <v>-1.917127071823205</v>
       </c>
       <c r="AP2">
-        <v>-5.604954059610804</v>
+        <v>-4.002906976744186</v>
       </c>
       <c r="AQ2">
-        <v>-0.7534246575342466</v>
+        <v>-1.98512585812357</v>
       </c>
     </row>
     <row r="3">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-5.04</v>
+        <v>-4.69</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +725,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6.04</v>
+        <v>2.93</v>
       </c>
       <c r="V3">
-        <v>0.7916120576671035</v>
+        <v>0.09361022364217253</v>
       </c>
       <c r="W3">
-        <v>-1.130044843049327</v>
+        <v>-0.6020539152759949</v>
       </c>
       <c r="X3">
-        <v>0.2832620544872187</v>
+        <v>0.1099973702347115</v>
       </c>
       <c r="Y3">
-        <v>-1.413306897536546</v>
+        <v>-0.7120512855107064</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.09328512135126146</v>
+        <v>-0.2084084084084084</v>
       </c>
       <c r="AB3">
-        <v>0.1773343355439232</v>
+        <v>0.116108343482846</v>
       </c>
       <c r="AC3">
-        <v>-0.2706194568951846</v>
+        <v>-0.3245167518912544</v>
       </c>
       <c r="AD3">
-        <v>14.9</v>
+        <v>16.7</v>
       </c>
       <c r="AE3">
-        <v>0.007037322304292653</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.90703732230429</v>
+        <v>16.7</v>
       </c>
       <c r="AG3">
-        <v>8.867037322304292</v>
+        <v>13.77</v>
       </c>
       <c r="AH3">
-        <v>0.6614461834143214</v>
+        <v>0.3479166666666667</v>
       </c>
       <c r="AI3">
-        <v>0.6567833991115308</v>
+        <v>0.7844058243306716</v>
       </c>
       <c r="AJ3">
-        <v>0.5374927115134727</v>
+        <v>0.3055247392944309</v>
       </c>
       <c r="AK3">
-        <v>0.5323297985549359</v>
+        <v>0.75</v>
       </c>
       <c r="AL3">
-        <v>2.19</v>
+        <v>1.81</v>
       </c>
       <c r="AM3">
-        <v>2.19</v>
+        <v>1.748</v>
       </c>
       <c r="AN3">
-        <v>-9.418457648546143</v>
+        <v>-4.854651162790698</v>
       </c>
       <c r="AO3">
-        <v>-0.7534246575342466</v>
+        <v>-1.917127071823205</v>
       </c>
       <c r="AP3">
-        <v>-5.604954059610804</v>
+        <v>-4.002906976744186</v>
       </c>
       <c r="AQ3">
-        <v>-0.7534246575342466</v>
+        <v>-1.98512585812357</v>
       </c>
     </row>
   </sheetData>
